--- a/test/res/ai-and-nanotech-families.xlsx
+++ b/test/res/ai-and-nanotech-families.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y186"/>
+  <dimension ref="A1:AF186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,17 +496,17 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>All Family Applicants</t>
+          <t>Applicants</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>All Family Inventors</t>
+          <t>Inventors</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>All Family Owners</t>
+          <t>Owners</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -557,6 +557,41 @@
       <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>US Classifications</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Earliest Priority Year</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Priority Jurisdictions</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Citation Score</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Market Coverage</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Patent Power</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Is Top Patent</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Weight per Applicant</t>
         </is>
       </c>
     </row>
@@ -666,6 +701,23 @@
         </is>
       </c>
       <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>US;;AU</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="n">
+        <v>0.06975609756097562</v>
+      </c>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -773,6 +825,23 @@
         </is>
       </c>
       <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>US;;AU</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="n">
+        <v>0.04882926829268293</v>
+      </c>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -880,6 +949,23 @@
         </is>
       </c>
       <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>US;;AU</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="n">
+        <v>0.06975609756097562</v>
+      </c>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -987,6 +1073,23 @@
         </is>
       </c>
       <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>US;;AU</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="n">
+        <v>0.04882926829268293</v>
+      </c>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1094,6 +1197,23 @@
         </is>
       </c>
       <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>US;;AU</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>0.04882926829268293</v>
+      </c>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1201,6 +1321,23 @@
         </is>
       </c>
       <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>US;;CA</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="n">
+        <v>0.1137073170731707</v>
+      </c>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1312,6 +1449,23 @@
         </is>
       </c>
       <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>US;;CA</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1423,6 +1577,23 @@
         </is>
       </c>
       <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>US;;CA</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1522,6 +1693,29 @@
       </c>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>US;;CA</t>
+        </is>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.1203007518796992</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.05923076923076923</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.007125506072874494</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1633,6 +1827,23 @@
         </is>
       </c>
       <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1744,6 +1955,29 @@
         </is>
       </c>
       <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="AB12" t="n">
+        <v>5.774436090225564</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1.620512820512821</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>9.357547715442452</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1855,6 +2089,23 @@
         </is>
       </c>
       <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1962,6 +2213,23 @@
         </is>
       </c>
       <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2073,6 +2341,23 @@
         </is>
       </c>
       <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2180,6 +2465,23 @@
         </is>
       </c>
       <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="n">
+        <v>0.464390243902439</v>
+      </c>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2291,6 +2593,29 @@
         </is>
       </c>
       <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="AB17" t="n">
+        <v>3.070866141732283</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1.663414634146341</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>5.108123679661993</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -2402,6 +2727,23 @@
         </is>
       </c>
       <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>US;;CN</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -2509,6 +2851,23 @@
         </is>
       </c>
       <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>US;;CN</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -2616,6 +2975,29 @@
         </is>
       </c>
       <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.3609022556390977</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.6205128205128205</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.2239444765760555</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -2723,6 +3105,23 @@
         </is>
       </c>
       <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="n">
+        <v>0.464390243902439</v>
+      </c>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -2830,6 +3229,29 @@
         </is>
       </c>
       <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="AB22" t="n">
+        <v>1.181102362204724</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1.663414634146341</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1.964662953716151</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2937,6 +3359,23 @@
         </is>
       </c>
       <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="n">
+        <v>1.164390243902439</v>
+      </c>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -3044,6 +3483,23 @@
         </is>
       </c>
       <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="n">
+        <v>0.464390243902439</v>
+      </c>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -3151,6 +3607,23 @@
         </is>
       </c>
       <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="n">
+        <v>0.464390243902439</v>
+      </c>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -3258,6 +3731,23 @@
         </is>
       </c>
       <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="n">
+        <v>0.464390243902439</v>
+      </c>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -3365,6 +3855,23 @@
         </is>
       </c>
       <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="n">
+        <v>0.464390243902439</v>
+      </c>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -3472,6 +3979,29 @@
         </is>
       </c>
       <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>EP</t>
+        </is>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.1203007518796992</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.1170526315789474</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -3583,6 +4113,23 @@
         </is>
       </c>
       <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>EP</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="n">
+        <v>1.465560975609756</v>
+      </c>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -3694,6 +4241,23 @@
         </is>
       </c>
       <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>EP</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="n">
+        <v>1.410243902439024</v>
+      </c>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -3797,6 +4361,29 @@
         </is>
       </c>
       <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>FR;;EP</t>
+        </is>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.2362204724409449</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.7102439024390244</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.1677741501824467</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -3904,6 +4491,29 @@
         </is>
       </c>
       <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.1203007518796992</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.7614102564102564</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.09159822633506844</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -4011,6 +4621,29 @@
         </is>
       </c>
       <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.2362204724409449</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.7791463414634145</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.1840503168811216</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -4118,6 +4751,23 @@
         </is>
       </c>
       <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="n">
+        <v>0.7810634146341464</v>
+      </c>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -4225,6 +4875,29 @@
         </is>
       </c>
       <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>US;;IB</t>
+        </is>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.2362204724409449</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>1.238048780487805</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.2924524678317649</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -4332,6 +5005,23 @@
         </is>
       </c>
       <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>US;;IB</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="n">
+        <v>0.7686341463414634</v>
+      </c>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -4443,6 +5133,23 @@
         </is>
       </c>
       <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>US;;IL</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -4554,6 +5261,23 @@
         </is>
       </c>
       <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="n">
+        <v>1.33409756097561</v>
+      </c>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -4665,6 +5389,23 @@
         </is>
       </c>
       <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="n">
+        <v>0.8697073170731707</v>
+      </c>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -4772,6 +5513,29 @@
         </is>
       </c>
       <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.07540106951871657</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.008870714061025478</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -4883,6 +5647,23 @@
         </is>
       </c>
       <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -4990,6 +5771,29 @@
         </is>
       </c>
       <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.1203007518796992</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.7342307692307691</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.08832851359167147</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -5097,6 +5901,29 @@
         </is>
       </c>
       <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.2362204724409449</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.07902439024390244</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.01866717879777223</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -5208,6 +6035,29 @@
         </is>
       </c>
       <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.7086614173228346</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1.079024390243903</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.7646629537161513</v>
+      </c>
+      <c r="AE44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -5319,6 +6169,29 @@
         </is>
       </c>
       <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.4724409448818898</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1.079024390243903</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.5097753024774343</v>
+      </c>
+      <c r="AE45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -5430,6 +6303,29 @@
         </is>
       </c>
       <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="AB46" t="n">
+        <v>0.7086614173228346</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1.079024390243903</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.7646629537161513</v>
+      </c>
+      <c r="AE46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -5537,6 +6433,23 @@
         </is>
       </c>
       <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="n">
+        <v>0.07902439024390244</v>
+      </c>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -5648,6 +6561,23 @@
         </is>
       </c>
       <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="n">
+        <v>1.219707317073171</v>
+      </c>
+      <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -5759,6 +6689,29 @@
         </is>
       </c>
       <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>NZ</t>
+        </is>
+      </c>
+      <c r="AB49" t="n">
+        <v>0.2362204724409449</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>2.099658536585366</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0.4959823314768581</v>
+      </c>
+      <c r="AE49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -5866,6 +6819,29 @@
         </is>
       </c>
       <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>NZ</t>
+        </is>
+      </c>
+      <c r="AB50" t="n">
+        <v>0.2406015037593985</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0.2341052631578947</v>
+      </c>
+      <c r="AE50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -5977,6 +6953,29 @@
         </is>
       </c>
       <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="AB51" t="n">
+        <v>0.4724409448818898</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>3.298487804878049</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>1.558340695217976</v>
+      </c>
+      <c r="AE51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -6084,6 +7083,23 @@
         </is>
       </c>
       <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="n">
+        <v>0.07902439024390244</v>
+      </c>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -6191,6 +7207,23 @@
         </is>
       </c>
       <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -6302,6 +7335,29 @@
         </is>
       </c>
       <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB54" t="n">
+        <v>1.443609022556391</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>3.113230769230769</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>4.494288027761711</v>
+      </c>
+      <c r="AE54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -6413,6 +7469,23 @@
         </is>
       </c>
       <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -6524,6 +7597,23 @@
         </is>
       </c>
       <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -6635,6 +7725,23 @@
         </is>
       </c>
       <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -6746,6 +7853,29 @@
         </is>
       </c>
       <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB58" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1.994652406417112</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0.5866624724756213</v>
+      </c>
+      <c r="AE58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -6853,6 +7983,29 @@
         </is>
       </c>
       <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB59" t="n">
+        <v>0.2362204724409449</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0.2362204724409449</v>
+      </c>
+      <c r="AE59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -6964,6 +8117,29 @@
         </is>
       </c>
       <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB60" t="n">
+        <v>1.56390977443609</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>1.56390977443609</v>
+      </c>
+      <c r="AE60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -7075,6 +8251,29 @@
         </is>
       </c>
       <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB61" t="n">
+        <v>1.56390977443609</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>1.195</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>1.868872180451127</v>
+      </c>
+      <c r="AE61" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -7186,6 +8385,23 @@
         </is>
       </c>
       <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD62" t="inlineStr"/>
+      <c r="AE62" t="inlineStr"/>
+      <c r="AF62" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -7297,6 +8513,29 @@
         </is>
       </c>
       <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB63" t="n">
+        <v>0.2362204724409449</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0.2362204724409449</v>
+      </c>
+      <c r="AE63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -7408,6 +8647,29 @@
         </is>
       </c>
       <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB64" t="n">
+        <v>0.2362204724409449</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>0.2362204724409449</v>
+      </c>
+      <c r="AE64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -7519,6 +8781,29 @@
         </is>
       </c>
       <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB65" t="n">
+        <v>0.481203007518797</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>0.481203007518797</v>
+      </c>
+      <c r="AE65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -7630,6 +8915,29 @@
         </is>
       </c>
       <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB66" t="n">
+        <v>0.6015037593984962</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>0.6015037593984962</v>
+      </c>
+      <c r="AE66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -7737,6 +9045,29 @@
         </is>
       </c>
       <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB67" t="n">
+        <v>0.2362204724409449</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>0.2362204724409449</v>
+      </c>
+      <c r="AE67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -7844,6 +9175,23 @@
         </is>
       </c>
       <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD68" t="inlineStr"/>
+      <c r="AE68" t="inlineStr"/>
+      <c r="AF68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -7951,6 +9299,29 @@
         </is>
       </c>
       <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB69" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>0.2861764705882353</v>
+      </c>
+      <c r="AE69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -8058,6 +9429,29 @@
         </is>
       </c>
       <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB70" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>2.07379679144385</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>1.341868512110727</v>
+      </c>
+      <c r="AE70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -8169,6 +9563,29 @@
         </is>
       </c>
       <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB71" t="n">
+        <v>3.647058823529412</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>3.647058823529412</v>
+      </c>
+      <c r="AE71" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -8276,6 +9693,23 @@
         </is>
       </c>
       <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -8383,6 +9817,29 @@
         </is>
       </c>
       <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB73" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>0.8193684210526314</v>
+      </c>
+      <c r="AE73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -8490,6 +9947,29 @@
         </is>
       </c>
       <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.417322834645669</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>1.174634146341463</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>1.664835797964279</v>
+      </c>
+      <c r="AE74" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -8601,6 +10081,29 @@
         </is>
       </c>
       <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB75" t="n">
+        <v>4.251968503937007</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>2.976377952755905</v>
+      </c>
+      <c r="AE75" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -8708,6 +10211,29 @@
         </is>
       </c>
       <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB76" t="n">
+        <v>0.3609022556390977</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>2.017435897435897</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>0.7280971659919028</v>
+      </c>
+      <c r="AE76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -8819,6 +10345,29 @@
         </is>
       </c>
       <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB77" t="n">
+        <v>1.924812030075188</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>1.195</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>2.300150375939849</v>
+      </c>
+      <c r="AE77" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -8930,6 +10479,23 @@
         </is>
       </c>
       <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -9041,6 +10607,29 @@
         </is>
       </c>
       <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB79" t="n">
+        <v>3.543307086614173</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>1.209390243902439</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>4.285241021701556</v>
+      </c>
+      <c r="AE79" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -9148,6 +10737,23 @@
         </is>
       </c>
       <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr"/>
+      <c r="AC80" t="n">
+        <v>1.399658536585366</v>
+      </c>
+      <c r="AD80" t="inlineStr"/>
+      <c r="AE80" t="inlineStr"/>
+      <c r="AF80" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -9255,6 +10861,29 @@
         </is>
       </c>
       <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB81" t="n">
+        <v>0.2362204724409449</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>0.2362204724409449</v>
+      </c>
+      <c r="AE81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -9366,6 +10995,29 @@
         </is>
       </c>
       <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA82" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB82" t="n">
+        <v>4.015748031496063</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>1.195</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>4.798818897637795</v>
+      </c>
+      <c r="AE82" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -9477,6 +11129,23 @@
         </is>
       </c>
       <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA83" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB83" t="inlineStr"/>
+      <c r="AC83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD83" t="inlineStr"/>
+      <c r="AE83" t="inlineStr"/>
+      <c r="AF83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -9588,6 +11257,23 @@
         </is>
       </c>
       <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA84" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB84" t="inlineStr"/>
+      <c r="AC84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD84" t="inlineStr"/>
+      <c r="AE84" t="inlineStr"/>
+      <c r="AF84" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -9699,6 +11385,23 @@
         </is>
       </c>
       <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA85" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB85" t="inlineStr"/>
+      <c r="AC85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD85" t="inlineStr"/>
+      <c r="AE85" t="inlineStr"/>
+      <c r="AF85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -9806,6 +11509,29 @@
         </is>
       </c>
       <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA86" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB86" t="n">
+        <v>1.653543307086614</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>1.15748031496063</v>
+      </c>
+      <c r="AE86" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -9913,6 +11639,23 @@
         </is>
       </c>
       <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA87" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB87" t="inlineStr"/>
+      <c r="AC87" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD87" t="inlineStr"/>
+      <c r="AE87" t="inlineStr"/>
+      <c r="AF87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -10020,6 +11763,23 @@
         </is>
       </c>
       <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA88" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB88" t="inlineStr"/>
+      <c r="AC88" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD88" t="inlineStr"/>
+      <c r="AE88" t="inlineStr"/>
+      <c r="AF88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -10127,6 +11887,29 @@
         </is>
       </c>
       <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA89" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB89" t="n">
+        <v>0.3609022556390977</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>0.3511578947368421</v>
+      </c>
+      <c r="AE89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -10234,6 +12017,23 @@
         </is>
       </c>
       <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA90" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB90" t="inlineStr"/>
+      <c r="AC90" t="n">
+        <v>0.464390243902439</v>
+      </c>
+      <c r="AD90" t="inlineStr"/>
+      <c r="AE90" t="inlineStr"/>
+      <c r="AF90" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -10345,6 +12145,23 @@
         </is>
       </c>
       <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA91" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB91" t="inlineStr"/>
+      <c r="AC91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD91" t="inlineStr"/>
+      <c r="AE91" t="inlineStr"/>
+      <c r="AF91" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -10452,6 +12269,23 @@
         </is>
       </c>
       <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA92" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB92" t="inlineStr"/>
+      <c r="AC92" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD92" t="inlineStr"/>
+      <c r="AE92" t="inlineStr"/>
+      <c r="AF92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -10563,6 +12397,23 @@
         </is>
       </c>
       <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA93" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB93" t="inlineStr"/>
+      <c r="AC93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD93" t="inlineStr"/>
+      <c r="AE93" t="inlineStr"/>
+      <c r="AF93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -10670,6 +12521,29 @@
         </is>
       </c>
       <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA94" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB94" t="n">
+        <v>0.2362204724409449</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1.458048780487805</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>0.3444209717687728</v>
+      </c>
+      <c r="AE94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -10777,6 +12651,29 @@
         </is>
       </c>
       <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA95" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB95" t="n">
+        <v>0.7086614173228346</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>0.689527559055118</v>
+      </c>
+      <c r="AE95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -10888,6 +12785,23 @@
         </is>
       </c>
       <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA96" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB96" t="inlineStr"/>
+      <c r="AC96" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD96" t="inlineStr"/>
+      <c r="AE96" t="inlineStr"/>
+      <c r="AF96" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -10995,6 +12909,29 @@
         </is>
       </c>
       <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA97" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB97" t="n">
+        <v>0.9448818897637795</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>0.9193700787401573</v>
+      </c>
+      <c r="AE97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -11102,6 +13039,29 @@
         </is>
       </c>
       <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA98" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB98" t="n">
+        <v>0.2362204724409449</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>0.4965731707317073</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>0.1173007489917419</v>
+      </c>
+      <c r="AE98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -11205,6 +13165,23 @@
         </is>
       </c>
       <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA99" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB99" t="inlineStr"/>
+      <c r="AC99" t="n">
+        <v>0.7102439024390244</v>
+      </c>
+      <c r="AD99" t="inlineStr"/>
+      <c r="AE99" t="inlineStr"/>
+      <c r="AF99" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -11316,6 +13293,29 @@
         </is>
       </c>
       <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA100" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB100" t="n">
+        <v>0.7086614173228346</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>0.7086614173228346</v>
+      </c>
+      <c r="AE100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -11427,6 +13427,23 @@
         </is>
       </c>
       <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA101" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB101" t="inlineStr"/>
+      <c r="AC101" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD101" t="inlineStr"/>
+      <c r="AE101" t="inlineStr"/>
+      <c r="AF101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -11534,6 +13551,29 @@
         </is>
       </c>
       <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA102" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB102" t="n">
+        <v>0.9448818897637795</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>0.9193700787401573</v>
+      </c>
+      <c r="AE102" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -11641,6 +13681,29 @@
         </is>
       </c>
       <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA103" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB103" t="n">
+        <v>1.181102362204724</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>1.149212598425197</v>
+      </c>
+      <c r="AE103" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -11748,6 +13811,29 @@
         </is>
       </c>
       <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA104" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB104" t="n">
+        <v>0.7086614173228346</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>2.073658536585366</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>1.46952179758018</v>
+      </c>
+      <c r="AE104" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -11859,6 +13945,23 @@
         </is>
       </c>
       <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA105" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB105" t="inlineStr"/>
+      <c r="AC105" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD105" t="inlineStr"/>
+      <c r="AE105" t="inlineStr"/>
+      <c r="AF105" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -11966,6 +14069,29 @@
         </is>
       </c>
       <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA106" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB106" t="n">
+        <v>0.4724409448818898</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>0.4596850393700787</v>
+      </c>
+      <c r="AE106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -12077,6 +14203,23 @@
         </is>
       </c>
       <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA107" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB107" t="inlineStr"/>
+      <c r="AC107" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD107" t="inlineStr"/>
+      <c r="AE107" t="inlineStr"/>
+      <c r="AF107" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -12184,6 +14327,23 @@
         </is>
       </c>
       <c r="Y108" t="inlineStr"/>
+      <c r="Z108" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA108" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB108" t="inlineStr"/>
+      <c r="AC108" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD108" t="inlineStr"/>
+      <c r="AE108" t="inlineStr"/>
+      <c r="AF108" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -12295,6 +14455,23 @@
         </is>
       </c>
       <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA109" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB109" t="inlineStr"/>
+      <c r="AC109" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD109" t="inlineStr"/>
+      <c r="AE109" t="inlineStr"/>
+      <c r="AF109" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -12402,6 +14579,23 @@
         </is>
       </c>
       <c r="Y110" t="inlineStr"/>
+      <c r="Z110" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA110" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB110" t="inlineStr"/>
+      <c r="AC110" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD110" t="inlineStr"/>
+      <c r="AE110" t="inlineStr"/>
+      <c r="AF110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -12513,6 +14707,23 @@
         </is>
       </c>
       <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA111" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB111" t="inlineStr"/>
+      <c r="AC111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD111" t="inlineStr"/>
+      <c r="AE111" t="inlineStr"/>
+      <c r="AF111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -12620,6 +14831,23 @@
         </is>
       </c>
       <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA112" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB112" t="inlineStr"/>
+      <c r="AC112" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD112" t="inlineStr"/>
+      <c r="AE112" t="inlineStr"/>
+      <c r="AF112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -12727,6 +14955,23 @@
         </is>
       </c>
       <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA113" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB113" t="inlineStr"/>
+      <c r="AC113" t="n">
+        <v>0.08341463414634147</v>
+      </c>
+      <c r="AD113" t="inlineStr"/>
+      <c r="AE113" t="inlineStr"/>
+      <c r="AF113" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -12834,6 +15079,23 @@
         </is>
       </c>
       <c r="Y114" t="inlineStr"/>
+      <c r="Z114" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA114" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB114" t="inlineStr"/>
+      <c r="AC114" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD114" t="inlineStr"/>
+      <c r="AE114" t="inlineStr"/>
+      <c r="AF114" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -12941,6 +15203,23 @@
         </is>
       </c>
       <c r="Y115" t="inlineStr"/>
+      <c r="Z115" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AA115" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB115" t="inlineStr"/>
+      <c r="AC115" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD115" t="inlineStr"/>
+      <c r="AE115" t="inlineStr"/>
+      <c r="AF115" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -13052,6 +15331,23 @@
         </is>
       </c>
       <c r="Y116" t="inlineStr"/>
+      <c r="Z116" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA116" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB116" t="inlineStr"/>
+      <c r="AC116" t="n">
+        <v>3.152682926829268</v>
+      </c>
+      <c r="AD116" t="inlineStr"/>
+      <c r="AE116" t="inlineStr"/>
+      <c r="AF116" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -13159,6 +15455,23 @@
         </is>
       </c>
       <c r="Y117" t="inlineStr"/>
+      <c r="Z117" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA117" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB117" t="inlineStr"/>
+      <c r="AC117" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD117" t="inlineStr"/>
+      <c r="AE117" t="inlineStr"/>
+      <c r="AF117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -13270,6 +15583,23 @@
         </is>
       </c>
       <c r="Y118" t="inlineStr"/>
+      <c r="Z118" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA118" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB118" t="inlineStr"/>
+      <c r="AC118" t="n">
+        <v>0.8364999999999998</v>
+      </c>
+      <c r="AD118" t="inlineStr"/>
+      <c r="AE118" t="inlineStr"/>
+      <c r="AF118" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -13377,6 +15707,23 @@
         </is>
       </c>
       <c r="Y119" t="inlineStr"/>
+      <c r="Z119" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA119" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB119" t="inlineStr"/>
+      <c r="AC119" t="n">
+        <v>1.174634146341463</v>
+      </c>
+      <c r="AD119" t="inlineStr"/>
+      <c r="AE119" t="inlineStr"/>
+      <c r="AF119" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -13488,6 +15835,23 @@
         </is>
       </c>
       <c r="Y120" t="inlineStr"/>
+      <c r="Z120" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA120" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB120" t="inlineStr"/>
+      <c r="AC120" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD120" t="inlineStr"/>
+      <c r="AE120" t="inlineStr"/>
+      <c r="AF120" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -13599,6 +15963,23 @@
         </is>
       </c>
       <c r="Y121" t="inlineStr"/>
+      <c r="Z121" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA121" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB121" t="inlineStr"/>
+      <c r="AC121" t="n">
+        <v>1.195</v>
+      </c>
+      <c r="AD121" t="inlineStr"/>
+      <c r="AE121" t="inlineStr"/>
+      <c r="AF121" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -13710,6 +16091,23 @@
         </is>
       </c>
       <c r="Y122" t="inlineStr"/>
+      <c r="Z122" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA122" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB122" t="inlineStr"/>
+      <c r="AC122" t="n">
+        <v>1.195</v>
+      </c>
+      <c r="AD122" t="inlineStr"/>
+      <c r="AE122" t="inlineStr"/>
+      <c r="AF122" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -13821,6 +16219,23 @@
         </is>
       </c>
       <c r="Y123" t="inlineStr"/>
+      <c r="Z123" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA123" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB123" t="inlineStr"/>
+      <c r="AC123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD123" t="inlineStr"/>
+      <c r="AE123" t="inlineStr"/>
+      <c r="AF123" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -13932,6 +16347,23 @@
         </is>
       </c>
       <c r="Y124" t="inlineStr"/>
+      <c r="Z124" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA124" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB124" t="inlineStr"/>
+      <c r="AC124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD124" t="inlineStr"/>
+      <c r="AE124" t="inlineStr"/>
+      <c r="AF124" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -14039,6 +16471,23 @@
         </is>
       </c>
       <c r="Y125" t="inlineStr"/>
+      <c r="Z125" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA125" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB125" t="inlineStr"/>
+      <c r="AC125" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD125" t="inlineStr"/>
+      <c r="AE125" t="inlineStr"/>
+      <c r="AF125" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -14150,6 +16599,23 @@
         </is>
       </c>
       <c r="Y126" t="inlineStr"/>
+      <c r="Z126" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA126" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB126" t="inlineStr"/>
+      <c r="AC126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD126" t="inlineStr"/>
+      <c r="AE126" t="inlineStr"/>
+      <c r="AF126" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -14261,6 +16727,23 @@
         </is>
       </c>
       <c r="Y127" t="inlineStr"/>
+      <c r="Z127" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA127" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB127" t="inlineStr"/>
+      <c r="AC127" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD127" t="inlineStr"/>
+      <c r="AE127" t="inlineStr"/>
+      <c r="AF127" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -14368,6 +16851,23 @@
         </is>
       </c>
       <c r="Y128" t="inlineStr"/>
+      <c r="Z128" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA128" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB128" t="inlineStr"/>
+      <c r="AC128" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD128" t="inlineStr"/>
+      <c r="AE128" t="inlineStr"/>
+      <c r="AF128" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -14475,6 +16975,23 @@
         </is>
       </c>
       <c r="Y129" t="inlineStr"/>
+      <c r="Z129" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA129" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB129" t="inlineStr"/>
+      <c r="AC129" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD129" t="inlineStr"/>
+      <c r="AE129" t="inlineStr"/>
+      <c r="AF129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -14582,6 +17099,23 @@
         </is>
       </c>
       <c r="Y130" t="inlineStr"/>
+      <c r="Z130" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA130" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB130" t="inlineStr"/>
+      <c r="AC130" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD130" t="inlineStr"/>
+      <c r="AE130" t="inlineStr"/>
+      <c r="AF130" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -14689,6 +17223,23 @@
         </is>
       </c>
       <c r="Y131" t="inlineStr"/>
+      <c r="Z131" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA131" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB131" t="inlineStr"/>
+      <c r="AC131" t="n">
+        <v>0.872780487804878</v>
+      </c>
+      <c r="AD131" t="inlineStr"/>
+      <c r="AE131" t="inlineStr"/>
+      <c r="AF131" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -14800,6 +17351,23 @@
         </is>
       </c>
       <c r="Y132" t="inlineStr"/>
+      <c r="Z132" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA132" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB132" t="inlineStr"/>
+      <c r="AC132" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD132" t="inlineStr"/>
+      <c r="AE132" t="inlineStr"/>
+      <c r="AF132" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -14911,6 +17479,23 @@
         </is>
       </c>
       <c r="Y133" t="inlineStr"/>
+      <c r="Z133" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA133" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB133" t="inlineStr"/>
+      <c r="AC133" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD133" t="inlineStr"/>
+      <c r="AE133" t="inlineStr"/>
+      <c r="AF133" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -15018,6 +17603,23 @@
         </is>
       </c>
       <c r="Y134" t="inlineStr"/>
+      <c r="Z134" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA134" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB134" t="inlineStr"/>
+      <c r="AC134" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD134" t="inlineStr"/>
+      <c r="AE134" t="inlineStr"/>
+      <c r="AF134" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -15125,6 +17727,23 @@
         </is>
       </c>
       <c r="Y135" t="inlineStr"/>
+      <c r="Z135" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA135" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB135" t="inlineStr"/>
+      <c r="AC135" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD135" t="inlineStr"/>
+      <c r="AE135" t="inlineStr"/>
+      <c r="AF135" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -15232,6 +17851,23 @@
         </is>
       </c>
       <c r="Y136" t="inlineStr"/>
+      <c r="Z136" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA136" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB136" t="inlineStr"/>
+      <c r="AC136" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD136" t="inlineStr"/>
+      <c r="AE136" t="inlineStr"/>
+      <c r="AF136" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -15335,6 +17971,23 @@
         </is>
       </c>
       <c r="Y137" t="inlineStr"/>
+      <c r="Z137" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA137" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB137" t="inlineStr"/>
+      <c r="AC137" t="n">
+        <v>0.7102439024390244</v>
+      </c>
+      <c r="AD137" t="inlineStr"/>
+      <c r="AE137" t="inlineStr"/>
+      <c r="AF137" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -15446,6 +18099,23 @@
         </is>
       </c>
       <c r="Y138" t="inlineStr"/>
+      <c r="Z138" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA138" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB138" t="inlineStr"/>
+      <c r="AC138" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD138" t="inlineStr"/>
+      <c r="AE138" t="inlineStr"/>
+      <c r="AF138" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -15557,6 +18227,23 @@
         </is>
       </c>
       <c r="Y139" t="inlineStr"/>
+      <c r="Z139" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA139" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB139" t="inlineStr"/>
+      <c r="AC139" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD139" t="inlineStr"/>
+      <c r="AE139" t="inlineStr"/>
+      <c r="AF139" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -15668,6 +18355,23 @@
         </is>
       </c>
       <c r="Y140" t="inlineStr"/>
+      <c r="Z140" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA140" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB140" t="inlineStr"/>
+      <c r="AC140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD140" t="inlineStr"/>
+      <c r="AE140" t="inlineStr"/>
+      <c r="AF140" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -15779,6 +18483,23 @@
         </is>
       </c>
       <c r="Y141" t="inlineStr"/>
+      <c r="Z141" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA141" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB141" t="inlineStr"/>
+      <c r="AC141" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD141" t="inlineStr"/>
+      <c r="AE141" t="inlineStr"/>
+      <c r="AF141" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -15890,6 +18611,23 @@
         </is>
       </c>
       <c r="Y142" t="inlineStr"/>
+      <c r="Z142" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA142" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB142" t="inlineStr"/>
+      <c r="AC142" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD142" t="inlineStr"/>
+      <c r="AE142" t="inlineStr"/>
+      <c r="AF142" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -16001,6 +18739,23 @@
         </is>
       </c>
       <c r="Y143" t="inlineStr"/>
+      <c r="Z143" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA143" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB143" t="inlineStr"/>
+      <c r="AC143" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD143" t="inlineStr"/>
+      <c r="AE143" t="inlineStr"/>
+      <c r="AF143" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -16112,6 +18867,23 @@
         </is>
       </c>
       <c r="Y144" t="inlineStr"/>
+      <c r="Z144" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA144" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB144" t="inlineStr"/>
+      <c r="AC144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD144" t="inlineStr"/>
+      <c r="AE144" t="inlineStr"/>
+      <c r="AF144" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -16223,6 +18995,23 @@
         </is>
       </c>
       <c r="Y145" t="inlineStr"/>
+      <c r="Z145" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA145" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB145" t="inlineStr"/>
+      <c r="AC145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD145" t="inlineStr"/>
+      <c r="AE145" t="inlineStr"/>
+      <c r="AF145" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -16334,6 +19123,23 @@
         </is>
       </c>
       <c r="Y146" t="inlineStr"/>
+      <c r="Z146" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA146" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB146" t="inlineStr"/>
+      <c r="AC146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD146" t="inlineStr"/>
+      <c r="AE146" t="inlineStr"/>
+      <c r="AF146" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -16445,6 +19251,23 @@
         </is>
       </c>
       <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA147" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB147" t="inlineStr"/>
+      <c r="AC147" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD147" t="inlineStr"/>
+      <c r="AE147" t="inlineStr"/>
+      <c r="AF147" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -16556,6 +19379,23 @@
         </is>
       </c>
       <c r="Y148" t="inlineStr"/>
+      <c r="Z148" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA148" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB148" t="inlineStr"/>
+      <c r="AC148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD148" t="inlineStr"/>
+      <c r="AE148" t="inlineStr"/>
+      <c r="AF148" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -16667,6 +19507,23 @@
         </is>
       </c>
       <c r="Y149" t="inlineStr"/>
+      <c r="Z149" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA149" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB149" t="inlineStr"/>
+      <c r="AC149" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD149" t="inlineStr"/>
+      <c r="AE149" t="inlineStr"/>
+      <c r="AF149" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -16778,6 +19635,23 @@
         </is>
       </c>
       <c r="Y150" t="inlineStr"/>
+      <c r="Z150" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA150" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB150" t="inlineStr"/>
+      <c r="AC150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD150" t="inlineStr"/>
+      <c r="AE150" t="inlineStr"/>
+      <c r="AF150" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -16889,6 +19763,23 @@
         </is>
       </c>
       <c r="Y151" t="inlineStr"/>
+      <c r="Z151" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA151" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB151" t="inlineStr"/>
+      <c r="AC151" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD151" t="inlineStr"/>
+      <c r="AE151" t="inlineStr"/>
+      <c r="AF151" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -17000,6 +19891,23 @@
         </is>
       </c>
       <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA152" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB152" t="inlineStr"/>
+      <c r="AC152" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD152" t="inlineStr"/>
+      <c r="AE152" t="inlineStr"/>
+      <c r="AF152" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -17111,6 +20019,23 @@
         </is>
       </c>
       <c r="Y153" t="inlineStr"/>
+      <c r="Z153" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA153" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB153" t="inlineStr"/>
+      <c r="AC153" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD153" t="inlineStr"/>
+      <c r="AE153" t="inlineStr"/>
+      <c r="AF153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -17222,6 +20147,23 @@
         </is>
       </c>
       <c r="Y154" t="inlineStr"/>
+      <c r="Z154" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA154" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB154" t="inlineStr"/>
+      <c r="AC154" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD154" t="inlineStr"/>
+      <c r="AE154" t="inlineStr"/>
+      <c r="AF154" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -17333,6 +20275,23 @@
         </is>
       </c>
       <c r="Y155" t="inlineStr"/>
+      <c r="Z155" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA155" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB155" t="inlineStr"/>
+      <c r="AC155" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD155" t="inlineStr"/>
+      <c r="AE155" t="inlineStr"/>
+      <c r="AF155" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -17444,6 +20403,23 @@
         </is>
       </c>
       <c r="Y156" t="inlineStr"/>
+      <c r="Z156" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA156" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB156" t="inlineStr"/>
+      <c r="AC156" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD156" t="inlineStr"/>
+      <c r="AE156" t="inlineStr"/>
+      <c r="AF156" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -17555,6 +20531,23 @@
         </is>
       </c>
       <c r="Y157" t="inlineStr"/>
+      <c r="Z157" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA157" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB157" t="inlineStr"/>
+      <c r="AC157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD157" t="inlineStr"/>
+      <c r="AE157" t="inlineStr"/>
+      <c r="AF157" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -17666,6 +20659,23 @@
         </is>
       </c>
       <c r="Y158" t="inlineStr"/>
+      <c r="Z158" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA158" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB158" t="inlineStr"/>
+      <c r="AC158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD158" t="inlineStr"/>
+      <c r="AE158" t="inlineStr"/>
+      <c r="AF158" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -17777,6 +20787,23 @@
         </is>
       </c>
       <c r="Y159" t="inlineStr"/>
+      <c r="Z159" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA159" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB159" t="inlineStr"/>
+      <c r="AC159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD159" t="inlineStr"/>
+      <c r="AE159" t="inlineStr"/>
+      <c r="AF159" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -17888,6 +20915,23 @@
         </is>
       </c>
       <c r="Y160" t="inlineStr"/>
+      <c r="Z160" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA160" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB160" t="inlineStr"/>
+      <c r="AC160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD160" t="inlineStr"/>
+      <c r="AE160" t="inlineStr"/>
+      <c r="AF160" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -17995,6 +21039,23 @@
         </is>
       </c>
       <c r="Y161" t="inlineStr"/>
+      <c r="Z161" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA161" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB161" t="inlineStr"/>
+      <c r="AC161" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD161" t="inlineStr"/>
+      <c r="AE161" t="inlineStr"/>
+      <c r="AF161" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -18106,6 +21167,23 @@
         </is>
       </c>
       <c r="Y162" t="inlineStr"/>
+      <c r="Z162" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA162" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB162" t="inlineStr"/>
+      <c r="AC162" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD162" t="inlineStr"/>
+      <c r="AE162" t="inlineStr"/>
+      <c r="AF162" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -18213,6 +21291,23 @@
         </is>
       </c>
       <c r="Y163" t="inlineStr"/>
+      <c r="Z163" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA163" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB163" t="inlineStr"/>
+      <c r="AC163" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD163" t="inlineStr"/>
+      <c r="AE163" t="inlineStr"/>
+      <c r="AF163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -18320,6 +21415,23 @@
         </is>
       </c>
       <c r="Y164" t="inlineStr"/>
+      <c r="Z164" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA164" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB164" t="inlineStr"/>
+      <c r="AC164" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD164" t="inlineStr"/>
+      <c r="AE164" t="inlineStr"/>
+      <c r="AF164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -18423,6 +21535,23 @@
         </is>
       </c>
       <c r="Y165" t="inlineStr"/>
+      <c r="Z165" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA165" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB165" t="inlineStr"/>
+      <c r="AC165" t="n">
+        <v>0.7102439024390244</v>
+      </c>
+      <c r="AD165" t="inlineStr"/>
+      <c r="AE165" t="inlineStr"/>
+      <c r="AF165" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -18530,6 +21659,23 @@
         </is>
       </c>
       <c r="Y166" t="inlineStr"/>
+      <c r="Z166" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA166" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB166" t="inlineStr"/>
+      <c r="AC166" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD166" t="inlineStr"/>
+      <c r="AE166" t="inlineStr"/>
+      <c r="AF166" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -18637,6 +21783,23 @@
         </is>
       </c>
       <c r="Y167" t="inlineStr"/>
+      <c r="Z167" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA167" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB167" t="inlineStr"/>
+      <c r="AC167" t="n">
+        <v>0.7686341463414634</v>
+      </c>
+      <c r="AD167" t="inlineStr"/>
+      <c r="AE167" t="inlineStr"/>
+      <c r="AF167" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -18744,6 +21907,23 @@
         </is>
       </c>
       <c r="Y168" t="inlineStr"/>
+      <c r="Z168" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA168" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB168" t="inlineStr"/>
+      <c r="AC168" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD168" t="inlineStr"/>
+      <c r="AE168" t="inlineStr"/>
+      <c r="AF168" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -18851,6 +22031,23 @@
         </is>
       </c>
       <c r="Y169" t="inlineStr"/>
+      <c r="Z169" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA169" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB169" t="inlineStr"/>
+      <c r="AC169" t="n">
+        <v>0.5156951219512195</v>
+      </c>
+      <c r="AD169" t="inlineStr"/>
+      <c r="AE169" t="inlineStr"/>
+      <c r="AF169" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -18962,6 +22159,23 @@
         </is>
       </c>
       <c r="Y170" t="inlineStr"/>
+      <c r="Z170" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AA170" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB170" t="inlineStr"/>
+      <c r="AC170" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD170" t="inlineStr"/>
+      <c r="AE170" t="inlineStr"/>
+      <c r="AF170" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -19073,6 +22287,23 @@
         </is>
       </c>
       <c r="Y171" t="inlineStr"/>
+      <c r="Z171" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AA171" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB171" t="inlineStr"/>
+      <c r="AC171" t="n">
+        <v>1.184536585365854</v>
+      </c>
+      <c r="AD171" t="inlineStr"/>
+      <c r="AE171" t="inlineStr"/>
+      <c r="AF171" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -19184,6 +22415,23 @@
         </is>
       </c>
       <c r="Y172" t="inlineStr"/>
+      <c r="Z172" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AA172" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB172" t="inlineStr"/>
+      <c r="AC172" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD172" t="inlineStr"/>
+      <c r="AE172" t="inlineStr"/>
+      <c r="AF172" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -19295,6 +22543,23 @@
         </is>
       </c>
       <c r="Y173" t="inlineStr"/>
+      <c r="Z173" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AA173" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB173" t="inlineStr"/>
+      <c r="AC173" t="n">
+        <v>0.8364999999999998</v>
+      </c>
+      <c r="AD173" t="inlineStr"/>
+      <c r="AE173" t="inlineStr"/>
+      <c r="AF173" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -19406,6 +22671,23 @@
         </is>
       </c>
       <c r="Y174" t="inlineStr"/>
+      <c r="Z174" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AA174" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB174" t="inlineStr"/>
+      <c r="AC174" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD174" t="inlineStr"/>
+      <c r="AE174" t="inlineStr"/>
+      <c r="AF174" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -19517,6 +22799,23 @@
         </is>
       </c>
       <c r="Y175" t="inlineStr"/>
+      <c r="Z175" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AA175" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB175" t="inlineStr"/>
+      <c r="AC175" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD175" t="inlineStr"/>
+      <c r="AE175" t="inlineStr"/>
+      <c r="AF175" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -19628,6 +22927,23 @@
         </is>
       </c>
       <c r="Y176" t="inlineStr"/>
+      <c r="Z176" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AA176" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB176" t="inlineStr"/>
+      <c r="AC176" t="n">
+        <v>0.8364999999999998</v>
+      </c>
+      <c r="AD176" t="inlineStr"/>
+      <c r="AE176" t="inlineStr"/>
+      <c r="AF176" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -19739,6 +23055,23 @@
         </is>
       </c>
       <c r="Y177" t="inlineStr"/>
+      <c r="Z177" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AA177" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB177" t="inlineStr"/>
+      <c r="AC177" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD177" t="inlineStr"/>
+      <c r="AE177" t="inlineStr"/>
+      <c r="AF177" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -19846,6 +23179,23 @@
         </is>
       </c>
       <c r="Y178" t="inlineStr"/>
+      <c r="Z178" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AA178" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB178" t="inlineStr"/>
+      <c r="AC178" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD178" t="inlineStr"/>
+      <c r="AE178" t="inlineStr"/>
+      <c r="AF178" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -19953,6 +23303,23 @@
         </is>
       </c>
       <c r="Y179" t="inlineStr"/>
+      <c r="Z179" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AA179" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB179" t="inlineStr"/>
+      <c r="AC179" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD179" t="inlineStr"/>
+      <c r="AE179" t="inlineStr"/>
+      <c r="AF179" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -20060,6 +23427,23 @@
         </is>
       </c>
       <c r="Y180" t="inlineStr"/>
+      <c r="Z180" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AA180" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB180" t="inlineStr"/>
+      <c r="AC180" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD180" t="inlineStr"/>
+      <c r="AE180" t="inlineStr"/>
+      <c r="AF180" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -20167,6 +23551,23 @@
         </is>
       </c>
       <c r="Y181" t="inlineStr"/>
+      <c r="Z181" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AA181" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB181" t="inlineStr"/>
+      <c r="AC181" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD181" t="inlineStr"/>
+      <c r="AE181" t="inlineStr"/>
+      <c r="AF181" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -20274,6 +23675,23 @@
         </is>
       </c>
       <c r="Y182" t="inlineStr"/>
+      <c r="Z182" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AA182" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB182" t="inlineStr"/>
+      <c r="AC182" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD182" t="inlineStr"/>
+      <c r="AE182" t="inlineStr"/>
+      <c r="AF182" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -20381,6 +23799,23 @@
         </is>
       </c>
       <c r="Y183" t="inlineStr"/>
+      <c r="Z183" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AA183" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB183" t="inlineStr"/>
+      <c r="AC183" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD183" t="inlineStr"/>
+      <c r="AE183" t="inlineStr"/>
+      <c r="AF183" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -20488,6 +23923,23 @@
         </is>
       </c>
       <c r="Y184" t="inlineStr"/>
+      <c r="Z184" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AA184" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB184" t="inlineStr"/>
+      <c r="AC184" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD184" t="inlineStr"/>
+      <c r="AE184" t="inlineStr"/>
+      <c r="AF184" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -20595,6 +24047,23 @@
         </is>
       </c>
       <c r="Y185" t="inlineStr"/>
+      <c r="Z185" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AA185" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB185" t="inlineStr"/>
+      <c r="AC185" t="n">
+        <v>0.9729999999999999</v>
+      </c>
+      <c r="AD185" t="inlineStr"/>
+      <c r="AE185" t="inlineStr"/>
+      <c r="AF185" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -20706,6 +24175,23 @@
         </is>
       </c>
       <c r="Y186" t="inlineStr"/>
+      <c r="Z186" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AA186" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="AB186" t="inlineStr"/>
+      <c r="AC186" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD186" t="inlineStr"/>
+      <c r="AE186" t="inlineStr"/>
+      <c r="AF186" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
